--- a/SS.xlsx
+++ b/SS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mcp\GEMI\imdown\image\v1\v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F14EDE6-CE79-41D7-9AC3-4D4B28A87345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C7813E-918C-4233-81D2-1FC97F60FF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30555" yWindow="1860" windowWidth="26115" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="청호 살균비데 B600 PLUS" sheetId="1" r:id="rId1"/>
@@ -94,19 +94,11 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>대수</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>월렌탈료</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>모델명</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>총합+vat</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -118,14 +110,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">선납시 정상가에서 10할인
-계좌번호 - 농협 096-17-013843 청호나이스 ㈜
-부가세 포함 
-본 비교 건적서는 검인을 받지 아니하고 사용할수 있으나 
-거래명세표로는 사용할 수 없습니다 </t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>이메일</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -134,15 +118,31 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>서납 총액</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">내선번호 </t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>이전안</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>선납 총액</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">선납시 정상가에서 10할인
+계좌번호 - 농협 096-17-013843 청호나이스 ㈜
+부가세 포함 
+본 비교 견적서는 검인을 받지 아니하고 사용할수 있으나 
+거래명세표로는 사용할 수 없습니다 </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>총액</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -281,12 +281,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -295,57 +295,12 @@
       <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
       <left/>
       <right/>
       <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
@@ -357,38 +312,98 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="1" diagonalDown="1">
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="hair">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="hair">
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="hair">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="hair">
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -397,7 +412,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -412,48 +427,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -462,118 +436,15 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -589,28 +460,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -715,6 +564,136 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -723,7 +702,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,15 +730,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -793,231 +763,186 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1089,16 +1014,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1122,7 +1047,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6534149" y="1543050"/>
+          <a:off x="6219824" y="828675"/>
           <a:ext cx="542926" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1140,15 +1065,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>168602</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1177,8 +1102,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4905375" y="0"/>
-          <a:ext cx="1847850" cy="742950"/>
+          <a:off x="5010150" y="104775"/>
+          <a:ext cx="1390650" cy="559127"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1481,7 +1406,7 @@
   <dimension ref="A1:T50"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:J10"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2125,52 +2050,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
+      <c r="A1" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
     </row>
     <row r="2" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-    </row>
-    <row r="3" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+    </row>
+    <row r="3" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2192,699 +2117,695 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="83" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="85"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="K4" s="40" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="42"/>
-    </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="77" t="s">
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+    </row>
+    <row r="5" spans="1:20" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="6"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="43" t="s">
+      <c r="J5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45" t="s">
+      <c r="K5" s="29"/>
+      <c r="L5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="46"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
       <c r="T5" s="7"/>
     </row>
-    <row r="6" spans="1:20" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
-      <c r="B6" s="86" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="8"/>
+      <c r="B6" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="44"/>
-      <c r="M6" s="9" t="s">
+      <c r="K6" s="29"/>
+      <c r="L6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="44" t="s">
+      <c r="M6" s="26"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="9" t="s">
+      <c r="P6" s="26"/>
+      <c r="Q6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="11"/>
+      <c r="R6" s="25"/>
       <c r="T6" s="7"/>
     </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
-      <c r="B7" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="43" t="s">
+    <row r="7" spans="1:20" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="44"/>
-      <c r="M7" s="47" t="s">
+      <c r="K7" s="29"/>
+      <c r="L7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="48"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="34"/>
     </row>
     <row r="8" spans="1:20" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="43" t="s">
+      <c r="J8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="44"/>
-      <c r="M8" s="47" t="s">
+      <c r="K8" s="29"/>
+      <c r="L8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="44" t="s">
+      <c r="M8" s="33"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="52" t="s">
+      <c r="P8" s="34"/>
+      <c r="Q8" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="S8" s="53"/>
+      <c r="R8" s="28"/>
     </row>
     <row r="9" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="K9" s="29" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="30"/>
-      <c r="M9" s="31" t="s">
+      <c r="K9" s="31"/>
+      <c r="L9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="33"/>
-    </row>
-    <row r="10" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="91" t="s">
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+    </row>
+    <row r="10" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
+      <c r="B10" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="78"/>
+    </row>
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="59"/>
+    </row>
+    <row r="12" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11"/>
+      <c r="B12" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="81"/>
+    </row>
+    <row r="13" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="62"/>
+    </row>
+    <row r="14" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="42"/>
+      <c r="G14" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="94" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="96"/>
-    </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="64"/>
-    </row>
-    <row r="12" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
-      <c r="B12" s="97" t="s">
+      <c r="I14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="42"/>
+      <c r="P14" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="97" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="98"/>
-      <c r="S12" s="99"/>
-    </row>
-    <row r="13" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="67"/>
-    </row>
-    <row r="14" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="54"/>
-      <c r="G14" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="54"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="O14" s="54"/>
-      <c r="P14" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q14" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="R14" s="54"/>
-      <c r="S14" s="55"/>
+      <c r="Q14" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" s="42"/>
+      <c r="S14" s="43"/>
     </row>
     <row r="15" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="36"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="39"/>
     </row>
     <row r="16" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="36"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="39"/>
     </row>
     <row r="17" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="36"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="39"/>
     </row>
     <row r="18" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="36"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="39"/>
     </row>
     <row r="19" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="36"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="39"/>
     </row>
     <row r="20" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="36"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="39"/>
     </row>
     <row r="21" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="36"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="39"/>
     </row>
     <row r="22" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="36"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="39"/>
     </row>
     <row r="23" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="38"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="41"/>
     </row>
     <row r="24" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
-      <c r="S24" s="70"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="65"/>
     </row>
     <row r="25" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="72"/>
-      <c r="S25" s="73"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="68"/>
     </row>
     <row r="26" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="73"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="68"/>
     </row>
     <row r="27" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="73"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="68"/>
     </row>
     <row r="28" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="73"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="68"/>
     </row>
     <row r="29" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="14"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="75"/>
-      <c r="R29" s="75"/>
-      <c r="S29" s="76"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="70"/>
+      <c r="R29" s="70"/>
+      <c r="S29" s="71"/>
     </row>
     <row r="30" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="14"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
     </row>
     <row r="31" spans="1:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
+      <c r="A31" s="9"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
     </row>
     <row r="33" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
     </row>
     <row r="34" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
     </row>
     <row r="35" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="18"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
     </row>
     <row r="36" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2906,7 +2827,7 @@
       <c r="M41" s="5"/>
     </row>
     <row r="42" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="19"/>
+      <c r="A42" s="16"/>
     </row>
     <row r="43" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2924,19 +2845,19 @@
       <c r="M44" s="5"/>
     </row>
     <row r="45" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
+      <c r="A45" s="16"/>
     </row>
     <row r="46" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="34"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
     </row>
     <row r="47" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
@@ -2957,25 +2878,17 @@
     <row r="49" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="99">
-    <mergeCell ref="B13:S13"/>
+  <mergeCells count="97">
     <mergeCell ref="B24:S29"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D6:G6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
     <mergeCell ref="B10:J10"/>
     <mergeCell ref="K10:S10"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="K12:M12"/>
     <mergeCell ref="N12:S12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:J11"/>
     <mergeCell ref="K11:M11"/>
     <mergeCell ref="N11:S11"/>
     <mergeCell ref="Q18:S18"/>
@@ -2990,13 +2903,12 @@
     <mergeCell ref="N18:O18"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B13:S13"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="Q19:S19"/>
     <mergeCell ref="K20:M20"/>
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
     <mergeCell ref="H22:J22"/>
     <mergeCell ref="H23:J23"/>
     <mergeCell ref="K15:M15"/>
@@ -3011,10 +2923,16 @@
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="K19:M19"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D7:H7"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
@@ -3022,29 +2940,17 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:J11"/>
     <mergeCell ref="A1:T2"/>
-    <mergeCell ref="K4:S4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:S5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="J4:R4"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:S9"/>
     <mergeCell ref="A46:J46"/>
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="Q21:S21"/>
@@ -3057,6 +2963,19 @@
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="H19:J19"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L7:R7"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:P8"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/SS.xlsx
+++ b/SS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mcp\GEMI\imdown\image\v1\v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C7813E-918C-4233-81D2-1FC97F60FF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E5A46B-7E75-46B6-9D6D-EC9FBD177BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>상     호</t>
   </si>
@@ -145,14 +145,23 @@
     <t>총액</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>법인 영업 3팀장 이홍기</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -286,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -294,24 +303,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
@@ -692,6 +683,13 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -763,187 +761,191 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1406,7 +1408,7 @@
   <dimension ref="A1:T50"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2050,50 +2052,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
     </row>
     <row r="2" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
     </row>
     <row r="3" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -2119,611 +2121,615 @@
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="23" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="51" t="s">
+      <c r="H4" s="68"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-    </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="72" t="s">
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+    </row>
+    <row r="5" spans="1:20" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="30" t="s">
+      <c r="K5" s="57"/>
+      <c r="L5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
       <c r="T5" s="7"/>
     </row>
     <row r="6" spans="1:20" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="25" t="s">
+      <c r="K6" s="57"/>
+      <c r="L6" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="26" t="s">
+      <c r="M6" s="60"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="25" t="s">
+      <c r="P6" s="61"/>
+      <c r="Q6" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="25"/>
+      <c r="R6" s="61"/>
       <c r="T6" s="7"/>
     </row>
     <row r="7" spans="1:20" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="32" t="s">
+      <c r="K7" s="57"/>
+      <c r="L7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="34"/>
-    </row>
-    <row r="8" spans="1:20" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="5"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="61"/>
+    </row>
+    <row r="8" spans="1:20" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="29" t="s">
+      <c r="J8" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="32" t="s">
+      <c r="K8" s="57"/>
+      <c r="L8" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="33"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="32" t="s">
+      <c r="M8" s="60"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="28" t="s">
+      <c r="P8" s="61"/>
+      <c r="Q8" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="28"/>
+      <c r="R8" s="56"/>
     </row>
     <row r="9" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="27" t="s">
+      <c r="K9" s="58"/>
+      <c r="L9" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
     </row>
     <row r="10" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="76" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="78"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="40"/>
     </row>
     <row r="11" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="57" t="s">
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="59"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="76"/>
     </row>
     <row r="12" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="79" t="s">
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="80"/>
-      <c r="R12" s="80"/>
-      <c r="S12" s="81"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="77"/>
     </row>
     <row r="13" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="62"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="51"/>
     </row>
     <row r="14" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="42" t="s">
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="24" t="s">
+      <c r="F14" s="45"/>
+      <c r="G14" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="44" t="s">
+      <c r="I14" s="45"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="42" t="s">
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="42"/>
-      <c r="P14" s="24" t="s">
+      <c r="O14" s="45"/>
+      <c r="P14" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="Q14" s="42" t="s">
+      <c r="Q14" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="R14" s="42"/>
-      <c r="S14" s="43"/>
-    </row>
-    <row r="15" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R14" s="45"/>
+      <c r="S14" s="46"/>
+    </row>
+    <row r="15" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="39"/>
-    </row>
-    <row r="16" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="69"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="80"/>
+    </row>
+    <row r="16" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="39"/>
-    </row>
-    <row r="17" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="69"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="80"/>
+    </row>
+    <row r="17" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="39"/>
-    </row>
-    <row r="18" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="69"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="80"/>
+    </row>
+    <row r="18" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="39"/>
-    </row>
-    <row r="19" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="69"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="80"/>
+    </row>
+    <row r="19" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="39"/>
-    </row>
-    <row r="20" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="80"/>
+    </row>
+    <row r="20" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="39"/>
-    </row>
-    <row r="21" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="69"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="80"/>
+    </row>
+    <row r="21" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="39"/>
-    </row>
-    <row r="22" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="80"/>
+    </row>
+    <row r="22" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="39"/>
-    </row>
-    <row r="23" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="69"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="80"/>
+    </row>
+    <row r="23" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="41"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="81"/>
     </row>
     <row r="24" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="65"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="25"/>
     </row>
     <row r="25" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="68"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="28"/>
     </row>
     <row r="26" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="68"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="28"/>
     </row>
     <row r="27" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="67"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="68"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="28"/>
     </row>
     <row r="28" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="67"/>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="67"/>
-      <c r="R28" s="67"/>
-      <c r="S28" s="68"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="28"/>
     </row>
     <row r="29" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="70"/>
-      <c r="S29" s="71"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="11"/>
@@ -2848,16 +2854,16 @@
       <c r="A45" s="16"/>
     </row>
     <row r="46" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
     </row>
     <row r="47" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
@@ -2878,7 +2884,92 @@
     <row r="49" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="101">
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L7:R7"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A1:T2"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B13:S13"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="Q17:S17"/>
     <mergeCell ref="B24:S29"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
@@ -2895,87 +2986,6 @@
     <mergeCell ref="Q14:S14"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B13:S13"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="A1:T2"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="J4:R4"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L7:R7"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:P8"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/SS.xlsx
+++ b/SS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mcp\GEMI\imdown\image\v1\v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E5A46B-7E75-46B6-9D6D-EC9FBD177BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B15C0C2-F8F5-4113-9B03-A70872DC2DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30900" yWindow="2205" windowWidth="26115" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="청호 살균비데 B600 PLUS" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,8 +294,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -356,21 +362,6 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -692,6 +683,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -700,7 +797,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -752,23 +849,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -776,15 +864,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -792,9 +880,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -806,35 +891,53 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -842,31 +945,55 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -875,7 +1002,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -884,67 +1014,64 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1407,8 +1534,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2052,50 +2179,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
     </row>
     <row r="2" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
     </row>
     <row r="3" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -2121,633 +2248,636 @@
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="67" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="53" t="s">
+      <c r="H4" s="64"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
     </row>
     <row r="5" spans="1:20" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="57"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="67"/>
+      <c r="L5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
       <c r="T5" s="7"/>
     </row>
     <row r="6" spans="1:20" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="57" t="s">
+      <c r="J6" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="K6" s="57"/>
-      <c r="L6" s="59" t="s">
+      <c r="K6" s="67"/>
+      <c r="L6" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="60"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="59" t="s">
+      <c r="M6" s="70"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="59" t="s">
+      <c r="P6" s="71"/>
+      <c r="Q6" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="61"/>
+      <c r="R6" s="71"/>
       <c r="T6" s="7"/>
     </row>
     <row r="7" spans="1:20" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="57" t="s">
+      <c r="J7" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="59" t="s">
+      <c r="K7" s="67"/>
+      <c r="L7" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="61"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="71"/>
     </row>
     <row r="8" spans="1:20" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66" t="s">
+      <c r="C8" s="58"/>
+      <c r="D8" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="57" t="s">
+      <c r="J8" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="57"/>
-      <c r="L8" s="59" t="s">
+      <c r="K8" s="67"/>
+      <c r="L8" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="60"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="59" t="s">
+      <c r="M8" s="70"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="56" t="s">
+      <c r="P8" s="71"/>
+      <c r="Q8" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="56"/>
+      <c r="R8" s="66"/>
     </row>
     <row r="9" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="58" t="s">
+      <c r="J9" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="58"/>
-      <c r="L9" s="55" t="s">
+      <c r="K9" s="68"/>
+      <c r="L9" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
     </row>
     <row r="10" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="38" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="40"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="36"/>
     </row>
     <row r="11" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="43" t="s">
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="76"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="44"/>
     </row>
     <row r="12" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="41" t="s">
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="77"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="40"/>
     </row>
     <row r="13" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="51"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="54"/>
     </row>
     <row r="14" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="45" t="s">
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="21" t="s">
+      <c r="F14" s="47"/>
+      <c r="G14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="45" t="s">
+      <c r="H14" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="45"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47" t="s">
+      <c r="I14" s="47"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="45" t="s">
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="45"/>
-      <c r="P14" s="21" t="s">
+      <c r="O14" s="47"/>
+      <c r="P14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="Q14" s="45" t="s">
+      <c r="Q14" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="R14" s="45"/>
-      <c r="S14" s="46"/>
-    </row>
-    <row r="15" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R14" s="47"/>
+      <c r="S14" s="48"/>
+    </row>
+    <row r="15" spans="1:20" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="80"/>
-    </row>
-    <row r="16" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="72"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="46"/>
+    </row>
+    <row r="16" spans="1:20" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="80"/>
-    </row>
-    <row r="17" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="75"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="91"/>
+    </row>
+    <row r="17" spans="1:19" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="78"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="80"/>
-    </row>
-    <row r="18" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="46"/>
+    </row>
+    <row r="18" spans="1:19" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="80"/>
-    </row>
-    <row r="19" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="75"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="91"/>
+    </row>
+    <row r="19" spans="1:19" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="80"/>
-    </row>
-    <row r="20" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="72"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="46"/>
+    </row>
+    <row r="20" spans="1:19" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="80"/>
-    </row>
-    <row r="21" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="75"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="91"/>
+    </row>
+    <row r="21" spans="1:19" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="78"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="78"/>
-      <c r="S21" s="80"/>
-    </row>
-    <row r="22" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="46"/>
+    </row>
+    <row r="22" spans="1:19" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="80"/>
-    </row>
-    <row r="23" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="75"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="91"/>
+    </row>
+    <row r="23" spans="1:19" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="81"/>
-    </row>
-    <row r="24" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="46"/>
+    </row>
+    <row r="24" spans="1:19" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
-      <c r="B24" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="25"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="91"/>
     </row>
     <row r="25" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="28"/>
+      <c r="B25" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="21"/>
     </row>
     <row r="26" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="28"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="24"/>
     </row>
     <row r="27" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="28"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="24"/>
     </row>
     <row r="28" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="28"/>
-    </row>
-    <row r="29" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="24"/>
+    </row>
+    <row r="29" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="31"/>
-    </row>
-    <row r="30" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="24"/>
+    </row>
+    <row r="30" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="27"/>
     </row>
     <row r="31" spans="1:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
@@ -2854,16 +2984,16 @@
       <c r="A45" s="16"/>
     </row>
     <row r="46" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
+      <c r="A46" s="61"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
     </row>
     <row r="47" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
@@ -2884,7 +3014,39 @@
     <row r="49" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="101">
+  <mergeCells count="97">
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="H23:J24"/>
+    <mergeCell ref="B23:D24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="K23:M24"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="H21:J22"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B17:D18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="H15:J16"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="H19:J20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="Q20:S20"/>
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="L9:R9"/>
@@ -2899,24 +3061,23 @@
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="A46:J46"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="Q23:S23"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="K15:M16"/>
+    <mergeCell ref="K17:M18"/>
+    <mergeCell ref="K19:M20"/>
+    <mergeCell ref="B21:D22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="K21:M22"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="Q17:S17"/>
     <mergeCell ref="A1:T2"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="D6:H6"/>
@@ -2924,53 +3085,19 @@
     <mergeCell ref="J4:R4"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="P17:P18"/>
     <mergeCell ref="N18:O18"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="B13:S13"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K19:M19"/>
     <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="B24:S29"/>
+    <mergeCell ref="B25:S30"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
@@ -2984,7 +3111,6 @@
     <mergeCell ref="N11:S11"/>
     <mergeCell ref="Q18:S18"/>
     <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="B18:D18"/>
     <mergeCell ref="N15:O15"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
